--- a/va_facility_data_2025-02-20/St. Albans VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''St.%20Albans%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. Albans VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''St.%20Albans%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R967cabfc7ae24b4d98c78fdb6a4965f8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6d4192169d4547c09da3afcf177e526b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R647ac611ef784610af76895e81c4ecce"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R00f0bb6dee984e50a9e0ff532f76db13"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R39623c9e2f484533becb66127082606f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbfccd99168164198866fe9320ee16710"/>
   </x:sheets>
 </x:workbook>
 </file>
